--- a/downloads/sales-report.xlsx
+++ b/downloads/sales-report.xlsx
@@ -425,16 +425,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>33897</v>
+        <v>1797</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/sales-report.xlsx
+++ b/downloads/sales-report.xlsx
@@ -406,7 +406,7 @@
   <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="10" customWidth="1"/>
+    <col min="1" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -425,16 +425,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1797</v>
+        <v>40150</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/sales-report.xlsx
+++ b/downloads/sales-report.xlsx
@@ -11,31 +11,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Sales Report</t>
+  </si>
+  <si>
+    <t>Report Period: 3/12/2025 to 1/1/2026</t>
+  </si>
+  <si>
+    <t>Overall Summary</t>
+  </si>
   <si>
     <t>Total Order Amount</t>
   </si>
   <si>
-    <t>Total offer discount</t>
-  </si>
-  <si>
-    <t>Total coupon discount</t>
-  </si>
-  <si>
-    <t>Total sales count</t>
+    <t>₹ 11699</t>
+  </si>
+  <si>
+    <t>Total Offer Discount</t>
+  </si>
+  <si>
+    <t>₹ 0</t>
+  </si>
+  <si>
+    <t>Total Coupon Discount</t>
+  </si>
+  <si>
+    <t>₹ 100</t>
+  </si>
+  <si>
+    <t>Total Sales Count</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Individual Sales Report</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Order Amount</t>
+  </si>
+  <si>
+    <t>Offer Discount</t>
+  </si>
+  <si>
+    <t>Coupon Discount</t>
+  </si>
+  <si>
+    <t>Sales Count</t>
+  </si>
+  <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>692feaaa0459418f1b9f602f</t>
+  </si>
+  <si>
+    <t>₹ 11699.00</t>
+  </si>
+  <si>
+    <t>₹ null</t>
+  </si>
+  <si>
+    <t>₹ 100.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <sz val="12"/>
     </font>
     <font>
       <b/>
@@ -49,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,13 +128,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,41 +490,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="5" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>40150</v>
-      </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
